--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/15/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.9364</v>
+        <v>-5.8779</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.3579</v>
+        <v>12.59600000000001</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.3193</v>
+        <v>12.11439999999999</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.907199999999987</v>
+        <v>-8.860599999999987</v>
       </c>
       <c r="E8" t="n">
-        <v>12.51759999999999</v>
+        <v>12.40319999999999</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.79310000000001</v>
+        <v>-22.86360000000002</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.331700000000005</v>
+        <v>-8.272700000000004</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.799999999999995</v>
+        <v>-8.664000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.66909999999999</v>
+        <v>12.857</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.62439999999999</v>
+        <v>12.48579999999999</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.121499999999997</v>
+        <v>-7.932999999999993</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.97429999999999</v>
+        <v>12.97379999999999</v>
       </c>
     </row>
     <row r="25">
